--- a/experiments/11_sched_method_comparison_6/temperatures_b.xlsx
+++ b/experiments/11_sched_method_comparison_6/temperatures_b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\experiment_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\DP\experiments\11_sched_method_comparison_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FE15F-1933-492B-A353-AAA4A7575D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9673F33-39EE-41EB-9BAE-F16DB7A7553B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D9B2736F-8484-4142-882C-94BEA7D2BB42}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Run 1</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Min util LTF</t>
+  </si>
+  <si>
+    <t>Mod.2 B predictor(2)</t>
+  </si>
+  <si>
+    <t>Mod.2 B predictor(2) LTF</t>
+  </si>
+  <si>
+    <t>ilp reference</t>
+  </si>
+  <si>
+    <t>reference</t>
   </si>
 </sst>
 </file>
@@ -1105,6 +1117,9 @@
               <c:f>'imx8 results'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod.2 B predictor(2)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1129,13 +1144,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.73968822260913825</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.86708143920984992</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.92255057073071012</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1147,13 +1162,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.73968822260913825</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.86708143920984992</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.92255057073071012</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1196,13 +1211,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>53.777999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53.747333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>53.215333333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,6 +1236,9 @@
               <c:f>'imx8 results'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod.2 B predictor(2) LTF</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1247,13 +1265,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.72249628987898096</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.1725133498410836</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.1097739509567826</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1265,13 +1283,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.72249628987898096</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.1725133498410836</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.1097739509567826</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1314,13 +1332,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>53.875333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>56.025333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>54.126666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,6 +1357,9 @@
               <c:f>'imx8 results'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ilp reference</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1365,13 +1386,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.71046526226754048</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.91097213032135238</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.82392879951283771</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1383,13 +1404,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.71046526226754048</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.91097213032135238</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.82392879951283771</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1432,13 +1453,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>54.278666666666673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>54.562666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>54.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,6 +1478,9 @@
               <c:f>'imx8 results'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reference</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1483,13 +1507,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.82657418837566454</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.77592439494235887</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.82714985878551039</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1501,13 +1525,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.82657418837566454</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.77592439494235887</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.82714985878551039</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1550,13 +1574,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>55.198666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>56.931999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>54.148666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,6 +2671,9 @@
               <c:f>'imx8 results'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod.2 B predictor(2)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2671,13 +2698,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.53426885450013784</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.76204374910864037</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>8.4196120258944351E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2689,13 +2716,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.53426885450013784</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.76204374910864037</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>8.4196120258944351E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2738,13 +2765,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>29.999266666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29.641266666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29.596200000000035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,6 +2790,9 @@
               <c:f>'imx8 results'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod.2 B predictor(2) LTF</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2789,13 +2819,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.59790877788064356</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.63481744007408081</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>9.0499650091406453E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2807,13 +2837,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.59790877788064356</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.63481744007408081</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>9.0499650091406453E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2856,13 +2886,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.140400000000032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>31.653333333333403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30.399000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,6 +2911,9 @@
               <c:f>'imx8 results'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ilp reference</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2907,13 +2940,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.68322250808612983</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.50912113380691526</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>5.5765461234231171E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2925,13 +2958,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.68322250808612983</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.50912113380691526</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>5.5765461234231171E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2974,13 +3007,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.273333333333369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30.807666666666734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>31.007599999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,6 +3032,9 @@
               <c:f>'imx8 results'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reference</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3025,13 +3061,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.68492431374243434</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.35672813177544727</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.16666471998861457</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3043,13 +3079,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.68492431374243434</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.35672813177544727</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.16666471998861457</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3092,13 +3128,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>31.201066666666701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>33.206400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30.726933333333363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +5011,7 @@
   <dimension ref="A35:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="N71" sqref="N71:N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5313,152 +5349,208 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="17" t="e">
+      <c r="A43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3">
+        <v>54.591999999999999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>53.94</v>
+      </c>
+      <c r="D43" s="3">
+        <v>52.802</v>
+      </c>
+      <c r="E43" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="17" t="e">
+        <v>53.777999999999999</v>
+      </c>
+      <c r="F43" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.73968822260913825</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.753</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.667999999999999</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29.576799999999999</v>
       </c>
       <c r="J43" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>29.999266666666667</v>
       </c>
       <c r="K43" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="22"/>
+        <v>0.53426885450013784</v>
+      </c>
+      <c r="L43" s="21">
+        <v>23.838999999999999</v>
+      </c>
+      <c r="M43" s="3">
+        <v>24.271999999999998</v>
+      </c>
+      <c r="N43" s="22">
+        <v>23.225200000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="17" t="e">
+      <c r="A44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3">
+        <v>54.648000000000003</v>
+      </c>
+      <c r="C44" s="3">
+        <v>54.067999999999998</v>
+      </c>
+      <c r="D44" s="3">
+        <v>52.91</v>
+      </c>
+      <c r="E44" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="17" t="e">
+        <v>53.875333333333337</v>
+      </c>
+      <c r="F44" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.72249628987898096</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.985400000000102</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.690999999999999</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29.744799999999998</v>
       </c>
       <c r="J44" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30.140400000000032</v>
       </c>
       <c r="K44" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="22"/>
+        <v>0.59790877788064356</v>
+      </c>
+      <c r="L44" s="21">
+        <v>23.662599999999902</v>
+      </c>
+      <c r="M44" s="3">
+        <v>24.376999999999999</v>
+      </c>
+      <c r="N44" s="22">
+        <v>23.165199999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="17" t="e">
+      <c r="A45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="3">
+        <v>54.723999999999997</v>
+      </c>
+      <c r="C45" s="3">
+        <v>54.835999999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>53.276000000000003</v>
+      </c>
+      <c r="E45" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="17" t="e">
+        <v>54.278666666666673</v>
+      </c>
+      <c r="F45" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.71046526226754048</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.136399999999998</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.465600000000098</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.218000000000004</v>
       </c>
       <c r="J45" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30.273333333333369</v>
       </c>
       <c r="K45" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="22"/>
+        <v>0.68322250808612983</v>
+      </c>
+      <c r="L45" s="21">
+        <v>23.587599999999998</v>
+      </c>
+      <c r="M45" s="3">
+        <v>25.370399999999901</v>
+      </c>
+      <c r="N45" s="22">
+        <v>23.058</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="17" t="e">
+      <c r="A46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="3">
+        <v>55.643999999999998</v>
+      </c>
+      <c r="C46" s="3">
+        <v>55.911999999999999</v>
+      </c>
+      <c r="D46" s="3">
+        <v>54.04</v>
+      </c>
+      <c r="E46" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="17" t="e">
+        <v>55.198666666666668</v>
+      </c>
+      <c r="F46" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.82657418837566454</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32.120400000000004</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.4772</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31.005600000000101</v>
       </c>
       <c r="J46" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31.201066666666701</v>
       </c>
       <c r="K46" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="22"/>
+        <v>0.68492431374243434</v>
+      </c>
+      <c r="L46" s="21">
+        <v>23.523599999999998</v>
+      </c>
+      <c r="M46" s="3">
+        <v>25.434799999999999</v>
+      </c>
+      <c r="N46" s="22">
+        <v>23.034399999999899</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
@@ -5822,152 +5914,208 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="17" t="e">
+      <c r="A57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>54.067999999999998</v>
+      </c>
+      <c r="C57" s="3">
+        <v>54.612000000000002</v>
+      </c>
+      <c r="D57" s="3">
+        <v>52.561999999999998</v>
+      </c>
+      <c r="E57" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="17" t="e">
+        <v>53.747333333333337</v>
+      </c>
+      <c r="F57" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.86708143920984992</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30.596199999999996</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28.731200000000001</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>29.596399999999999</v>
       </c>
       <c r="J57" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>29.641266666666667</v>
       </c>
       <c r="K57" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="22"/>
+        <v>0.76204374910864037</v>
+      </c>
+      <c r="L57" s="21">
+        <v>23.471800000000002</v>
+      </c>
+      <c r="M57" s="3">
+        <v>25.880800000000001</v>
+      </c>
+      <c r="N57" s="22">
+        <v>22.965599999999998</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="17" t="e">
+      <c r="A58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="3">
+        <v>55.735999999999997</v>
+      </c>
+      <c r="C58" s="3">
+        <v>57.584000000000003</v>
+      </c>
+      <c r="D58" s="3">
+        <v>54.756</v>
+      </c>
+      <c r="E58" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="17" t="e">
+        <v>56.025333333333329</v>
+      </c>
+      <c r="F58" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.1725133498410836</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.322000000000102</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30.800200000000103</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>31.837800000000001</v>
       </c>
       <c r="J58" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>31.653333333333403</v>
       </c>
       <c r="K58" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="21"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="22"/>
+        <v>0.63481744007408081</v>
+      </c>
+      <c r="L58" s="21">
+        <v>23.413999999999898</v>
+      </c>
+      <c r="M58" s="3">
+        <v>26.7837999999999</v>
+      </c>
+      <c r="N58" s="22">
+        <v>22.918199999999999</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="17" t="e">
+      <c r="A59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="3">
+        <v>54.847999999999999</v>
+      </c>
+      <c r="C59" s="3">
+        <v>55.508000000000003</v>
+      </c>
+      <c r="D59" s="3">
+        <v>53.332000000000001</v>
+      </c>
+      <c r="E59" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="17" t="e">
+        <v>54.562666666666665</v>
+      </c>
+      <c r="F59" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.91097213032135238</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>31.523999999999997</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30.386600000000104</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30.512400000000099</v>
       </c>
       <c r="J59" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>30.807666666666734</v>
       </c>
       <c r="K59" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="21"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="22"/>
+        <v>0.50912113380691526</v>
+      </c>
+      <c r="L59" s="21">
+        <v>23.324000000000002</v>
+      </c>
+      <c r="M59" s="3">
+        <v>25.121399999999898</v>
+      </c>
+      <c r="N59" s="22">
+        <v>22.819599999999902</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="17" t="e">
+      <c r="A60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="3">
+        <v>56.96</v>
+      </c>
+      <c r="C60" s="3">
+        <v>57.868000000000002</v>
+      </c>
+      <c r="D60" s="3">
+        <v>55.968000000000004</v>
+      </c>
+      <c r="E60" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="17" t="e">
+        <v>56.931999999999995</v>
+      </c>
+      <c r="F60" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.77592439494235887</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.670200000000001</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32.802599999999998</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>33.1464</v>
       </c>
       <c r="J60" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>33.206400000000002</v>
       </c>
       <c r="K60" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="21"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="22"/>
+        <v>0.35672813177544727</v>
+      </c>
+      <c r="L60" s="21">
+        <v>23.2898</v>
+      </c>
+      <c r="M60" s="3">
+        <v>25.0654</v>
+      </c>
+      <c r="N60" s="22">
+        <v>22.8216</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
@@ -6331,152 +6479,208 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="17" t="e">
+      <c r="A71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="3">
+        <v>52.722000000000001</v>
+      </c>
+      <c r="C71" s="3">
+        <v>54.508000000000003</v>
+      </c>
+      <c r="D71" s="3">
+        <v>52.415999999999997</v>
+      </c>
+      <c r="E71" s="17">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17" t="e">
+        <v>53.215333333333341</v>
+      </c>
+      <c r="F71" s="17">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.92255057073071012</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>29.481800000000103</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>29.624800000000004</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>29.681999999999995</v>
       </c>
       <c r="J71" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>29.596200000000035</v>
       </c>
       <c r="K71" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="21"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="22"/>
+        <v>8.4196120258944351E-2</v>
+      </c>
+      <c r="L71" s="21">
+        <v>23.240199999999898</v>
+      </c>
+      <c r="M71" s="3">
+        <v>24.883199999999999</v>
+      </c>
+      <c r="N71" s="22">
+        <v>22.734000000000002</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="17" t="e">
+      <c r="A72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="3">
+        <v>53.7</v>
+      </c>
+      <c r="C72" s="3">
+        <v>55.648000000000003</v>
+      </c>
+      <c r="D72" s="3">
+        <v>53.031999999999996</v>
+      </c>
+      <c r="E72" s="17">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="17" t="e">
+        <v>54.126666666666665</v>
+      </c>
+      <c r="F72" s="17">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.1097739509567826</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30.524200000000004</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>30.359400000000004</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>30.313399999999998</v>
       </c>
       <c r="J72" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30.399000000000001</v>
       </c>
       <c r="K72" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="21"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="22"/>
+        <v>9.0499650091406453E-2</v>
+      </c>
+      <c r="L72" s="21">
+        <v>23.175799999999999</v>
+      </c>
+      <c r="M72" s="3">
+        <v>25.288599999999999</v>
+      </c>
+      <c r="N72" s="22">
+        <v>22.718599999999999</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="17" t="e">
+      <c r="A73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="3">
+        <v>54.223999999999997</v>
+      </c>
+      <c r="C73" s="3">
+        <v>55.643999999999998</v>
+      </c>
+      <c r="D73" s="3">
+        <v>53.692</v>
+      </c>
+      <c r="E73" s="17">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="17" t="e">
+        <v>54.52</v>
+      </c>
+      <c r="F73" s="17">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.82392879951283771</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>31.084999999999997</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>30.981999999999999</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>30.9558</v>
       </c>
       <c r="J73" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>31.007599999999996</v>
       </c>
       <c r="K73" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="22"/>
+        <v>5.5765461234231171E-2</v>
+      </c>
+      <c r="L73" s="21">
+        <v>23.138999999999999</v>
+      </c>
+      <c r="M73" s="3">
+        <v>24.661999999999999</v>
+      </c>
+      <c r="N73" s="22">
+        <v>22.7362</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="17" t="e">
+      <c r="A74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="3">
+        <v>53.704000000000001</v>
+      </c>
+      <c r="C74" s="3">
+        <v>55.308</v>
+      </c>
+      <c r="D74" s="3">
+        <v>53.433999999999997</v>
+      </c>
+      <c r="E74" s="17">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F74" s="17" t="e">
+        <v>54.148666666666664</v>
+      </c>
+      <c r="F74" s="17">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.82714985878551039</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30.575200000000002</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>30.959</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>30.646600000000099</v>
       </c>
       <c r="J74" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30.726933333333363</v>
       </c>
       <c r="K74" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="21"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="22"/>
+        <v>0.16666471998861457</v>
+      </c>
+      <c r="L74" s="21">
+        <v>23.128799999999998</v>
+      </c>
+      <c r="M74" s="3">
+        <v>24.349</v>
+      </c>
+      <c r="N74" s="22">
+        <v>22.787399999999899</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
